--- a/September'21/30.09.2021/Bank Statement August-2021.xlsx
+++ b/September'21/30.09.2021/Bank Statement August-2021.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7905" tabRatio="742" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7905" tabRatio="742" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="G. Cost" sheetId="45" r:id="rId1"/>
@@ -651,7 +651,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="252">
   <si>
     <t>Bank Guarantee</t>
   </si>
@@ -1403,10 +1403,10 @@
     <t>Sim@DD(55+106131)</t>
   </si>
   <si>
-    <t>Sim@DD(57+85)</t>
-  </si>
-  <si>
     <t>30.09.2021</t>
+  </si>
+  <si>
+    <t>Sim@DD(82+85)</t>
   </si>
 </sst>
 </file>
@@ -3765,6 +3765,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3781,12 +3787,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4564,48 +4564,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="334" t="s">
+      <c r="A1" s="336" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="334"/>
-      <c r="C1" s="334"/>
-      <c r="D1" s="334"/>
-      <c r="E1" s="334"/>
-      <c r="F1" s="334"/>
-      <c r="G1" s="334"/>
-      <c r="H1" s="334"/>
-      <c r="I1" s="334"/>
-      <c r="J1" s="334"/>
-      <c r="K1" s="334"/>
-      <c r="L1" s="334"/>
-      <c r="M1" s="334"/>
-      <c r="N1" s="334"/>
-      <c r="O1" s="334"/>
-      <c r="P1" s="334"/>
-      <c r="Q1" s="334"/>
-      <c r="R1" s="334"/>
+      <c r="B1" s="336"/>
+      <c r="C1" s="336"/>
+      <c r="D1" s="336"/>
+      <c r="E1" s="336"/>
+      <c r="F1" s="336"/>
+      <c r="G1" s="336"/>
+      <c r="H1" s="336"/>
+      <c r="I1" s="336"/>
+      <c r="J1" s="336"/>
+      <c r="K1" s="336"/>
+      <c r="L1" s="336"/>
+      <c r="M1" s="336"/>
+      <c r="N1" s="336"/>
+      <c r="O1" s="336"/>
+      <c r="P1" s="336"/>
+      <c r="Q1" s="336"/>
+      <c r="R1" s="336"/>
     </row>
     <row r="2" spans="1:25" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="335" t="s">
+      <c r="A2" s="337" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="335"/>
-      <c r="C2" s="335"/>
-      <c r="D2" s="335"/>
-      <c r="E2" s="335"/>
-      <c r="F2" s="335"/>
-      <c r="G2" s="335"/>
-      <c r="H2" s="335"/>
-      <c r="I2" s="335"/>
-      <c r="J2" s="335"/>
-      <c r="K2" s="335"/>
-      <c r="L2" s="335"/>
-      <c r="M2" s="335"/>
-      <c r="N2" s="335"/>
-      <c r="O2" s="335"/>
-      <c r="P2" s="335"/>
-      <c r="Q2" s="335"/>
-      <c r="R2" s="335"/>
+      <c r="B2" s="337"/>
+      <c r="C2" s="337"/>
+      <c r="D2" s="337"/>
+      <c r="E2" s="337"/>
+      <c r="F2" s="337"/>
+      <c r="G2" s="337"/>
+      <c r="H2" s="337"/>
+      <c r="I2" s="337"/>
+      <c r="J2" s="337"/>
+      <c r="K2" s="337"/>
+      <c r="L2" s="337"/>
+      <c r="M2" s="337"/>
+      <c r="N2" s="337"/>
+      <c r="O2" s="337"/>
+      <c r="P2" s="337"/>
+      <c r="Q2" s="337"/>
+      <c r="R2" s="337"/>
     </row>
     <row r="3" spans="1:25" s="68" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="346" t="s">
@@ -4636,34 +4636,34 @@
       <c r="Y3" s="71"/>
     </row>
     <row r="4" spans="1:25" s="71" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="336" t="s">
+      <c r="A4" s="338" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="338" t="s">
+      <c r="B4" s="340" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="338" t="s">
+      <c r="C4" s="340" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="340" t="s">
+      <c r="D4" s="334" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="340" t="s">
+      <c r="E4" s="334" t="s">
         <v>115</v>
       </c>
-      <c r="F4" s="340" t="s">
+      <c r="F4" s="334" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="340" t="s">
+      <c r="G4" s="334" t="s">
         <v>21</v>
       </c>
-      <c r="H4" s="340" t="s">
+      <c r="H4" s="334" t="s">
         <v>22</v>
       </c>
-      <c r="I4" s="340" t="s">
+      <c r="I4" s="334" t="s">
         <v>23</v>
       </c>
-      <c r="J4" s="340" t="s">
+      <c r="J4" s="334" t="s">
         <v>24</v>
       </c>
       <c r="K4" s="349" t="s">
@@ -4697,16 +4697,16 @@
       <c r="X4" s="70"/>
     </row>
     <row r="5" spans="1:25" s="71" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="337"/>
-      <c r="B5" s="339"/>
-      <c r="C5" s="339"/>
-      <c r="D5" s="341"/>
-      <c r="E5" s="341"/>
-      <c r="F5" s="341"/>
-      <c r="G5" s="341"/>
-      <c r="H5" s="341"/>
-      <c r="I5" s="341"/>
-      <c r="J5" s="341"/>
+      <c r="A5" s="339"/>
+      <c r="B5" s="341"/>
+      <c r="C5" s="341"/>
+      <c r="D5" s="335"/>
+      <c r="E5" s="335"/>
+      <c r="F5" s="335"/>
+      <c r="G5" s="335"/>
+      <c r="H5" s="335"/>
+      <c r="I5" s="335"/>
+      <c r="J5" s="335"/>
       <c r="K5" s="350"/>
       <c r="L5" s="343"/>
       <c r="M5" s="352"/>
@@ -5600,7 +5600,7 @@
     </row>
     <row r="32" spans="1:24" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="208" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B32" s="207"/>
       <c r="C32" s="208">
@@ -7801,6 +7801,10 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="I4:I5"/>
@@ -7817,10 +7821,6 @@
     <mergeCell ref="Q4:Q5"/>
     <mergeCell ref="A3:R3"/>
     <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -8760,7 +8760,7 @@
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="33" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B33" s="56">
         <v>462000</v>
@@ -9928,8 +9928,8 @@
   </sheetPr>
   <dimension ref="B1:M166"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10046,7 +10046,7 @@
         <v>1</v>
       </c>
       <c r="F8" s="314">
-        <v>1239036.3999999999</v>
+        <v>1230059.3999999999</v>
       </c>
       <c r="G8" s="22"/>
       <c r="K8" s="377" t="s">
@@ -10109,15 +10109,13 @@
       <c r="B11" s="279" t="s">
         <v>191</v>
       </c>
-      <c r="C11" s="294">
-        <v>0</v>
-      </c>
+      <c r="C11" s="294"/>
       <c r="D11" s="366"/>
       <c r="E11" s="291" t="s">
         <v>197</v>
       </c>
       <c r="F11" s="301">
-        <v>197317</v>
+        <v>204765</v>
       </c>
       <c r="G11" s="3"/>
       <c r="K11" s="95" t="s">
@@ -10143,7 +10141,7 @@
         <v>7</v>
       </c>
       <c r="F12" s="302">
-        <v>473670.62150000012</v>
+        <v>450989.62150000012</v>
       </c>
       <c r="G12" s="3"/>
       <c r="K12" s="101"/>
@@ -10162,7 +10160,7 @@
         <v>198</v>
       </c>
       <c r="F13" s="309">
-        <v>46267</v>
+        <v>22057</v>
       </c>
       <c r="G13" s="19"/>
       <c r="K13" s="220"/>
@@ -10173,9 +10171,7 @@
       <c r="B14" s="281" t="s">
         <v>193</v>
       </c>
-      <c r="C14" s="296">
-        <v>0</v>
-      </c>
+      <c r="C14" s="296"/>
       <c r="D14" s="366"/>
       <c r="E14" s="289" t="s">
         <v>5</v>
@@ -10574,10 +10570,10 @@
         <v>229</v>
       </c>
       <c r="L46" s="318" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M46" s="319">
-        <v>27122</v>
+        <v>31897</v>
       </c>
     </row>
     <row r="47" spans="2:13" x14ac:dyDescent="0.25">
@@ -10607,9 +10603,15 @@
       <c r="C49" s="18"/>
       <c r="E49" s="18"/>
       <c r="F49" s="18"/>
-      <c r="K49" s="65"/>
-      <c r="L49" s="65"/>
-      <c r="M49" s="65"/>
+      <c r="K49" s="65" t="s">
+        <v>250</v>
+      </c>
+      <c r="L49" s="65" t="s">
+        <v>82</v>
+      </c>
+      <c r="M49" s="65">
+        <v>2673</v>
+      </c>
     </row>
     <row r="50" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B50" s="18"/>
@@ -10667,7 +10669,7 @@
       <c r="L55" s="362"/>
       <c r="M55" s="259">
         <f>SUM(M10:M54)</f>
-        <v>197317</v>
+        <v>204765</v>
       </c>
     </row>
     <row r="64" spans="2:13" x14ac:dyDescent="0.25">
@@ -11317,9 +11319,9 @@
   </sheetPr>
   <dimension ref="A1:V168"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="6" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U31" sqref="U31"/>
+      <selection pane="bottomLeft" activeCell="R24" sqref="R24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/September'21/30.09.2021/Bank Statement August-2021.xlsx
+++ b/September'21/30.09.2021/Bank Statement August-2021.xlsx
@@ -3765,6 +3765,30 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3789,12 +3813,6 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3814,24 +3832,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4564,70 +4564,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="336" t="s">
+      <c r="A1" s="344" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="336"/>
-      <c r="C1" s="336"/>
-      <c r="D1" s="336"/>
-      <c r="E1" s="336"/>
-      <c r="F1" s="336"/>
-      <c r="G1" s="336"/>
-      <c r="H1" s="336"/>
-      <c r="I1" s="336"/>
-      <c r="J1" s="336"/>
-      <c r="K1" s="336"/>
-      <c r="L1" s="336"/>
-      <c r="M1" s="336"/>
-      <c r="N1" s="336"/>
-      <c r="O1" s="336"/>
-      <c r="P1" s="336"/>
-      <c r="Q1" s="336"/>
-      <c r="R1" s="336"/>
+      <c r="B1" s="344"/>
+      <c r="C1" s="344"/>
+      <c r="D1" s="344"/>
+      <c r="E1" s="344"/>
+      <c r="F1" s="344"/>
+      <c r="G1" s="344"/>
+      <c r="H1" s="344"/>
+      <c r="I1" s="344"/>
+      <c r="J1" s="344"/>
+      <c r="K1" s="344"/>
+      <c r="L1" s="344"/>
+      <c r="M1" s="344"/>
+      <c r="N1" s="344"/>
+      <c r="O1" s="344"/>
+      <c r="P1" s="344"/>
+      <c r="Q1" s="344"/>
+      <c r="R1" s="344"/>
     </row>
     <row r="2" spans="1:25" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="337" t="s">
+      <c r="A2" s="345" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="337"/>
-      <c r="C2" s="337"/>
-      <c r="D2" s="337"/>
-      <c r="E2" s="337"/>
-      <c r="F2" s="337"/>
-      <c r="G2" s="337"/>
-      <c r="H2" s="337"/>
-      <c r="I2" s="337"/>
-      <c r="J2" s="337"/>
-      <c r="K2" s="337"/>
-      <c r="L2" s="337"/>
-      <c r="M2" s="337"/>
-      <c r="N2" s="337"/>
-      <c r="O2" s="337"/>
-      <c r="P2" s="337"/>
-      <c r="Q2" s="337"/>
-      <c r="R2" s="337"/>
+      <c r="B2" s="345"/>
+      <c r="C2" s="345"/>
+      <c r="D2" s="345"/>
+      <c r="E2" s="345"/>
+      <c r="F2" s="345"/>
+      <c r="G2" s="345"/>
+      <c r="H2" s="345"/>
+      <c r="I2" s="345"/>
+      <c r="J2" s="345"/>
+      <c r="K2" s="345"/>
+      <c r="L2" s="345"/>
+      <c r="M2" s="345"/>
+      <c r="N2" s="345"/>
+      <c r="O2" s="345"/>
+      <c r="P2" s="345"/>
+      <c r="Q2" s="345"/>
+      <c r="R2" s="345"/>
     </row>
     <row r="3" spans="1:25" s="68" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="346" t="s">
+      <c r="A3" s="352" t="s">
         <v>123</v>
       </c>
-      <c r="B3" s="347"/>
-      <c r="C3" s="347"/>
-      <c r="D3" s="347"/>
-      <c r="E3" s="347"/>
-      <c r="F3" s="347"/>
-      <c r="G3" s="347"/>
-      <c r="H3" s="347"/>
-      <c r="I3" s="347"/>
-      <c r="J3" s="347"/>
-      <c r="K3" s="347"/>
-      <c r="L3" s="347"/>
-      <c r="M3" s="347"/>
-      <c r="N3" s="347"/>
-      <c r="O3" s="347"/>
-      <c r="P3" s="347"/>
-      <c r="Q3" s="347"/>
-      <c r="R3" s="348"/>
+      <c r="B3" s="353"/>
+      <c r="C3" s="353"/>
+      <c r="D3" s="353"/>
+      <c r="E3" s="353"/>
+      <c r="F3" s="353"/>
+      <c r="G3" s="353"/>
+      <c r="H3" s="353"/>
+      <c r="I3" s="353"/>
+      <c r="J3" s="353"/>
+      <c r="K3" s="353"/>
+      <c r="L3" s="353"/>
+      <c r="M3" s="353"/>
+      <c r="N3" s="353"/>
+      <c r="O3" s="353"/>
+      <c r="P3" s="353"/>
+      <c r="Q3" s="353"/>
+      <c r="R3" s="354"/>
       <c r="T3" s="69"/>
       <c r="U3" s="70"/>
       <c r="V3" s="70"/>
@@ -4636,55 +4636,55 @@
       <c r="Y3" s="71"/>
     </row>
     <row r="4" spans="1:25" s="71" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="338" t="s">
+      <c r="A4" s="346" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="340" t="s">
+      <c r="B4" s="348" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="340" t="s">
+      <c r="C4" s="348" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="334" t="s">
+      <c r="D4" s="342" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="334" t="s">
+      <c r="E4" s="342" t="s">
         <v>115</v>
       </c>
-      <c r="F4" s="334" t="s">
+      <c r="F4" s="342" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="334" t="s">
+      <c r="G4" s="342" t="s">
         <v>21</v>
       </c>
-      <c r="H4" s="334" t="s">
+      <c r="H4" s="342" t="s">
         <v>22</v>
       </c>
-      <c r="I4" s="334" t="s">
+      <c r="I4" s="342" t="s">
         <v>23</v>
       </c>
-      <c r="J4" s="334" t="s">
+      <c r="J4" s="342" t="s">
         <v>24</v>
       </c>
-      <c r="K4" s="349" t="s">
+      <c r="K4" s="355" t="s">
         <v>25</v>
       </c>
-      <c r="L4" s="342" t="s">
+      <c r="L4" s="334" t="s">
         <v>26</v>
       </c>
-      <c r="M4" s="351" t="s">
+      <c r="M4" s="336" t="s">
         <v>27</v>
       </c>
-      <c r="N4" s="353" t="s">
+      <c r="N4" s="338" t="s">
         <v>8</v>
       </c>
-      <c r="O4" s="355" t="s">
+      <c r="O4" s="340" t="s">
         <v>28</v>
       </c>
-      <c r="P4" s="342" t="s">
+      <c r="P4" s="334" t="s">
         <v>140</v>
       </c>
-      <c r="Q4" s="344" t="s">
+      <c r="Q4" s="350" t="s">
         <v>241</v>
       </c>
       <c r="R4" s="194" t="s">
@@ -4697,23 +4697,23 @@
       <c r="X4" s="70"/>
     </row>
     <row r="5" spans="1:25" s="71" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="339"/>
-      <c r="B5" s="341"/>
-      <c r="C5" s="341"/>
-      <c r="D5" s="335"/>
-      <c r="E5" s="335"/>
-      <c r="F5" s="335"/>
-      <c r="G5" s="335"/>
-      <c r="H5" s="335"/>
-      <c r="I5" s="335"/>
-      <c r="J5" s="335"/>
-      <c r="K5" s="350"/>
-      <c r="L5" s="343"/>
-      <c r="M5" s="352"/>
-      <c r="N5" s="354"/>
-      <c r="O5" s="356"/>
-      <c r="P5" s="343"/>
-      <c r="Q5" s="345"/>
+      <c r="A5" s="347"/>
+      <c r="B5" s="349"/>
+      <c r="C5" s="349"/>
+      <c r="D5" s="343"/>
+      <c r="E5" s="343"/>
+      <c r="F5" s="343"/>
+      <c r="G5" s="343"/>
+      <c r="H5" s="343"/>
+      <c r="I5" s="343"/>
+      <c r="J5" s="343"/>
+      <c r="K5" s="356"/>
+      <c r="L5" s="335"/>
+      <c r="M5" s="337"/>
+      <c r="N5" s="339"/>
+      <c r="O5" s="341"/>
+      <c r="P5" s="335"/>
+      <c r="Q5" s="351"/>
       <c r="R5" s="195" t="s">
         <v>30</v>
       </c>
@@ -7801,14 +7801,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
     <mergeCell ref="A1:R1"/>
     <mergeCell ref="A2:R2"/>
     <mergeCell ref="A4:A5"/>
@@ -7821,6 +7813,14 @@
     <mergeCell ref="Q4:Q5"/>
     <mergeCell ref="A3:R3"/>
     <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -9929,7 +9929,7 @@
   <dimension ref="B1:M166"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11321,7 +11321,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="6" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R24" sqref="R24"/>
+      <selection pane="bottomLeft" activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/September'21/30.09.2021/Bank Statement August-2021.xlsx
+++ b/September'21/30.09.2021/Bank Statement August-2021.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7905" tabRatio="742" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7905" tabRatio="742"/>
   </bookViews>
   <sheets>
     <sheet name="G. Cost" sheetId="45" r:id="rId1"/>
@@ -1022,9 +1022,6 @@
     <t>30.06.2021</t>
   </si>
   <si>
-    <t>Month :July''2021</t>
-  </si>
-  <si>
     <t>05.07.2021</t>
   </si>
   <si>
@@ -1407,6 +1404,9 @@
   </si>
   <si>
     <t>Sim@DD(82+85)</t>
+  </si>
+  <si>
+    <t>Month :September''2021</t>
   </si>
 </sst>
 </file>
@@ -3765,12 +3765,57 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="19" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="19" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="19" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3787,51 +3832,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="19" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="19" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="19" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4551,9 +4551,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y320"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R37" sqref="R37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I41" sqref="I41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4564,70 +4564,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="344" t="s">
+      <c r="A1" s="334" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="344"/>
-      <c r="C1" s="344"/>
-      <c r="D1" s="344"/>
-      <c r="E1" s="344"/>
-      <c r="F1" s="344"/>
-      <c r="G1" s="344"/>
-      <c r="H1" s="344"/>
-      <c r="I1" s="344"/>
-      <c r="J1" s="344"/>
-      <c r="K1" s="344"/>
-      <c r="L1" s="344"/>
-      <c r="M1" s="344"/>
-      <c r="N1" s="344"/>
-      <c r="O1" s="344"/>
-      <c r="P1" s="344"/>
-      <c r="Q1" s="344"/>
-      <c r="R1" s="344"/>
+      <c r="B1" s="334"/>
+      <c r="C1" s="334"/>
+      <c r="D1" s="334"/>
+      <c r="E1" s="334"/>
+      <c r="F1" s="334"/>
+      <c r="G1" s="334"/>
+      <c r="H1" s="334"/>
+      <c r="I1" s="334"/>
+      <c r="J1" s="334"/>
+      <c r="K1" s="334"/>
+      <c r="L1" s="334"/>
+      <c r="M1" s="334"/>
+      <c r="N1" s="334"/>
+      <c r="O1" s="334"/>
+      <c r="P1" s="334"/>
+      <c r="Q1" s="334"/>
+      <c r="R1" s="334"/>
     </row>
     <row r="2" spans="1:25" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="345" t="s">
+      <c r="A2" s="335" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="345"/>
-      <c r="C2" s="345"/>
-      <c r="D2" s="345"/>
-      <c r="E2" s="345"/>
-      <c r="F2" s="345"/>
-      <c r="G2" s="345"/>
-      <c r="H2" s="345"/>
-      <c r="I2" s="345"/>
-      <c r="J2" s="345"/>
-      <c r="K2" s="345"/>
-      <c r="L2" s="345"/>
-      <c r="M2" s="345"/>
-      <c r="N2" s="345"/>
-      <c r="O2" s="345"/>
-      <c r="P2" s="345"/>
-      <c r="Q2" s="345"/>
-      <c r="R2" s="345"/>
+      <c r="B2" s="335"/>
+      <c r="C2" s="335"/>
+      <c r="D2" s="335"/>
+      <c r="E2" s="335"/>
+      <c r="F2" s="335"/>
+      <c r="G2" s="335"/>
+      <c r="H2" s="335"/>
+      <c r="I2" s="335"/>
+      <c r="J2" s="335"/>
+      <c r="K2" s="335"/>
+      <c r="L2" s="335"/>
+      <c r="M2" s="335"/>
+      <c r="N2" s="335"/>
+      <c r="O2" s="335"/>
+      <c r="P2" s="335"/>
+      <c r="Q2" s="335"/>
+      <c r="R2" s="335"/>
     </row>
     <row r="3" spans="1:25" s="68" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="352" t="s">
-        <v>123</v>
-      </c>
-      <c r="B3" s="353"/>
-      <c r="C3" s="353"/>
-      <c r="D3" s="353"/>
-      <c r="E3" s="353"/>
-      <c r="F3" s="353"/>
-      <c r="G3" s="353"/>
-      <c r="H3" s="353"/>
-      <c r="I3" s="353"/>
-      <c r="J3" s="353"/>
-      <c r="K3" s="353"/>
-      <c r="L3" s="353"/>
-      <c r="M3" s="353"/>
-      <c r="N3" s="353"/>
-      <c r="O3" s="353"/>
-      <c r="P3" s="353"/>
-      <c r="Q3" s="353"/>
-      <c r="R3" s="354"/>
+      <c r="A3" s="346" t="s">
+        <v>251</v>
+      </c>
+      <c r="B3" s="347"/>
+      <c r="C3" s="347"/>
+      <c r="D3" s="347"/>
+      <c r="E3" s="347"/>
+      <c r="F3" s="347"/>
+      <c r="G3" s="347"/>
+      <c r="H3" s="347"/>
+      <c r="I3" s="347"/>
+      <c r="J3" s="347"/>
+      <c r="K3" s="347"/>
+      <c r="L3" s="347"/>
+      <c r="M3" s="347"/>
+      <c r="N3" s="347"/>
+      <c r="O3" s="347"/>
+      <c r="P3" s="347"/>
+      <c r="Q3" s="347"/>
+      <c r="R3" s="348"/>
       <c r="T3" s="69"/>
       <c r="U3" s="70"/>
       <c r="V3" s="70"/>
@@ -4636,56 +4636,56 @@
       <c r="Y3" s="71"/>
     </row>
     <row r="4" spans="1:25" s="71" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="346" t="s">
+      <c r="A4" s="336" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="348" t="s">
+      <c r="B4" s="338" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="348" t="s">
+      <c r="C4" s="338" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="342" t="s">
+      <c r="D4" s="340" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="342" t="s">
+      <c r="E4" s="340" t="s">
         <v>115</v>
       </c>
-      <c r="F4" s="342" t="s">
+      <c r="F4" s="340" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="342" t="s">
+      <c r="G4" s="340" t="s">
         <v>21</v>
       </c>
-      <c r="H4" s="342" t="s">
+      <c r="H4" s="340" t="s">
         <v>22</v>
       </c>
-      <c r="I4" s="342" t="s">
+      <c r="I4" s="340" t="s">
         <v>23</v>
       </c>
-      <c r="J4" s="342" t="s">
+      <c r="J4" s="340" t="s">
         <v>24</v>
       </c>
-      <c r="K4" s="355" t="s">
+      <c r="K4" s="349" t="s">
         <v>25</v>
       </c>
-      <c r="L4" s="334" t="s">
+      <c r="L4" s="342" t="s">
         <v>26</v>
       </c>
-      <c r="M4" s="336" t="s">
+      <c r="M4" s="351" t="s">
         <v>27</v>
       </c>
-      <c r="N4" s="338" t="s">
+      <c r="N4" s="353" t="s">
         <v>8</v>
       </c>
-      <c r="O4" s="340" t="s">
+      <c r="O4" s="355" t="s">
         <v>28</v>
       </c>
-      <c r="P4" s="334" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q4" s="350" t="s">
-        <v>241</v>
+      <c r="P4" s="342" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q4" s="344" t="s">
+        <v>240</v>
       </c>
       <c r="R4" s="194" t="s">
         <v>29</v>
@@ -4697,23 +4697,23 @@
       <c r="X4" s="70"/>
     </row>
     <row r="5" spans="1:25" s="71" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="347"/>
-      <c r="B5" s="349"/>
-      <c r="C5" s="349"/>
-      <c r="D5" s="343"/>
-      <c r="E5" s="343"/>
-      <c r="F5" s="343"/>
-      <c r="G5" s="343"/>
-      <c r="H5" s="343"/>
-      <c r="I5" s="343"/>
-      <c r="J5" s="343"/>
-      <c r="K5" s="356"/>
-      <c r="L5" s="335"/>
-      <c r="M5" s="337"/>
-      <c r="N5" s="339"/>
-      <c r="O5" s="341"/>
-      <c r="P5" s="335"/>
-      <c r="Q5" s="351"/>
+      <c r="A5" s="337"/>
+      <c r="B5" s="339"/>
+      <c r="C5" s="339"/>
+      <c r="D5" s="341"/>
+      <c r="E5" s="341"/>
+      <c r="F5" s="341"/>
+      <c r="G5" s="341"/>
+      <c r="H5" s="341"/>
+      <c r="I5" s="341"/>
+      <c r="J5" s="341"/>
+      <c r="K5" s="350"/>
+      <c r="L5" s="343"/>
+      <c r="M5" s="352"/>
+      <c r="N5" s="354"/>
+      <c r="O5" s="356"/>
+      <c r="P5" s="343"/>
+      <c r="Q5" s="345"/>
       <c r="R5" s="195" t="s">
         <v>30</v>
       </c>
@@ -4726,7 +4726,7 @@
     </row>
     <row r="6" spans="1:25" s="75" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="203" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B6" s="204"/>
       <c r="C6" s="205"/>
@@ -4759,7 +4759,7 @@
     </row>
     <row r="7" spans="1:25" s="75" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="203" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B7" s="204"/>
       <c r="C7" s="205">
@@ -4794,7 +4794,7 @@
     </row>
     <row r="8" spans="1:25" s="75" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="203" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B8" s="207"/>
       <c r="C8" s="208"/>
@@ -4829,7 +4829,7 @@
     </row>
     <row r="9" spans="1:25" s="75" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="203" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B9" s="207"/>
       <c r="C9" s="208"/>
@@ -4864,7 +4864,7 @@
     </row>
     <row r="10" spans="1:25" s="75" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="203" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B10" s="207"/>
       <c r="C10" s="208">
@@ -4899,7 +4899,7 @@
     </row>
     <row r="11" spans="1:25" s="75" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="203" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B11" s="207"/>
       <c r="C11" s="208"/>
@@ -4932,7 +4932,7 @@
     </row>
     <row r="12" spans="1:25" s="75" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="203" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B12" s="207"/>
       <c r="C12" s="208">
@@ -4967,7 +4967,7 @@
     </row>
     <row r="13" spans="1:25" s="75" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="203" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B13" s="207"/>
       <c r="C13" s="208"/>
@@ -5000,7 +5000,7 @@
     </row>
     <row r="14" spans="1:25" s="75" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="203" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B14" s="207"/>
       <c r="C14" s="208"/>
@@ -5033,7 +5033,7 @@
     </row>
     <row r="15" spans="1:25" s="75" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="203" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B15" s="207"/>
       <c r="C15" s="208">
@@ -5068,7 +5068,7 @@
     </row>
     <row r="16" spans="1:25" s="75" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="203" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B16" s="207"/>
       <c r="C16" s="208"/>
@@ -5105,7 +5105,7 @@
     </row>
     <row r="17" spans="1:24" s="75" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="203" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B17" s="207"/>
       <c r="C17" s="208"/>
@@ -5144,7 +5144,7 @@
     </row>
     <row r="18" spans="1:24" s="75" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="203" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B18" s="207"/>
       <c r="C18" s="208"/>
@@ -5177,7 +5177,7 @@
     </row>
     <row r="19" spans="1:24" s="75" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="203" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B19" s="207"/>
       <c r="C19" s="208">
@@ -5214,7 +5214,7 @@
     </row>
     <row r="20" spans="1:24" s="75" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="203" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B20" s="207"/>
       <c r="C20" s="208"/>
@@ -5247,7 +5247,7 @@
     </row>
     <row r="21" spans="1:24" s="75" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="203" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B21" s="207"/>
       <c r="C21" s="208"/>
@@ -5280,7 +5280,7 @@
     </row>
     <row r="22" spans="1:24" s="75" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="203" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B22" s="207"/>
       <c r="C22" s="208"/>
@@ -5309,7 +5309,7 @@
     </row>
     <row r="23" spans="1:24" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="203" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B23" s="207"/>
       <c r="C23" s="208">
@@ -5342,7 +5342,7 @@
     </row>
     <row r="24" spans="1:24" s="75" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="203" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B24" s="207"/>
       <c r="C24" s="208"/>
@@ -5374,7 +5374,7 @@
     </row>
     <row r="25" spans="1:24" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="203" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B25" s="207"/>
       <c r="C25" s="208"/>
@@ -5405,7 +5405,7 @@
     </row>
     <row r="26" spans="1:24" s="75" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="203" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B26" s="207"/>
       <c r="C26" s="208"/>
@@ -5436,7 +5436,7 @@
     </row>
     <row r="27" spans="1:24" s="75" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="203" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B27" s="207"/>
       <c r="C27" s="208"/>
@@ -5465,7 +5465,7 @@
     </row>
     <row r="28" spans="1:24" s="75" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="208" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B28" s="207"/>
       <c r="C28" s="208"/>
@@ -5496,7 +5496,7 @@
     </row>
     <row r="29" spans="1:24" s="75" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="208" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B29" s="207"/>
       <c r="C29" s="208">
@@ -5533,7 +5533,7 @@
     </row>
     <row r="30" spans="1:24" s="75" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="208" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B30" s="207"/>
       <c r="C30" s="208">
@@ -5568,7 +5568,7 @@
     </row>
     <row r="31" spans="1:24" s="75" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="208" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B31" s="207"/>
       <c r="C31" s="208">
@@ -5600,7 +5600,7 @@
     </row>
     <row r="32" spans="1:24" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="208" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B32" s="207"/>
       <c r="C32" s="208">
@@ -5626,7 +5626,9 @@
       <c r="M32" s="208">
         <v>7000</v>
       </c>
-      <c r="N32" s="208"/>
+      <c r="N32" s="208">
+        <v>36000</v>
+      </c>
       <c r="O32" s="208"/>
       <c r="P32" s="208"/>
       <c r="Q32" s="210">
@@ -5634,7 +5636,7 @@
       </c>
       <c r="R32" s="196">
         <f t="shared" si="0"/>
-        <v>12051</v>
+        <v>48051</v>
       </c>
       <c r="S32" s="80"/>
     </row>
@@ -5788,7 +5790,7 @@
       </c>
       <c r="N37" s="200">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>36000</v>
       </c>
       <c r="O37" s="200">
         <f t="shared" si="1"/>
@@ -5804,7 +5806,7 @@
       </c>
       <c r="R37" s="202">
         <f>SUM(R6:R36)</f>
-        <v>68917.331000000006</v>
+        <v>104917.33100000001</v>
       </c>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.25">
@@ -7801,6 +7803,10 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
     <mergeCell ref="A1:R1"/>
     <mergeCell ref="A2:R2"/>
     <mergeCell ref="A4:A5"/>
@@ -7817,10 +7823,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -7966,7 +7968,7 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="33" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B6" s="34">
         <v>383000</v>
@@ -7996,7 +7998,7 @@
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="40" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B7" s="34">
         <v>293000</v>
@@ -8026,7 +8028,7 @@
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="40" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B8" s="42">
         <v>0</v>
@@ -8056,7 +8058,7 @@
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="42" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B9" s="42">
         <v>517000</v>
@@ -8086,7 +8088,7 @@
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="42" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B10" s="42">
         <v>254000</v>
@@ -8114,7 +8116,7 @@
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="28" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B11" s="46">
         <v>328000</v>
@@ -8144,7 +8146,7 @@
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="33" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B12" s="46">
         <v>143000</v>
@@ -8174,7 +8176,7 @@
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="33" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B13" s="48">
         <v>535000</v>
@@ -8204,7 +8206,7 @@
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="33" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B14" s="49">
         <v>0</v>
@@ -8234,7 +8236,7 @@
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="33" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B15" s="30">
         <v>0</v>
@@ -8264,7 +8266,7 @@
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="33" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B16" s="34">
         <v>688000</v>
@@ -8294,7 +8296,7 @@
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="40" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B17" s="34">
         <v>0</v>
@@ -8324,7 +8326,7 @@
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="40" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B18" s="42">
         <v>266000</v>
@@ -8354,7 +8356,7 @@
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="42" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B19" s="42">
         <v>277000</v>
@@ -8384,7 +8386,7 @@
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="42" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B20" s="42">
         <v>170000</v>
@@ -8414,7 +8416,7 @@
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="33" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B21" s="34">
         <v>0</v>
@@ -8444,7 +8446,7 @@
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="33" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B22" s="34">
         <v>0</v>
@@ -8474,7 +8476,7 @@
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="33" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B23" s="34">
         <v>656000</v>
@@ -8504,7 +8506,7 @@
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="33" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B24" s="34">
         <v>309000</v>
@@ -8534,7 +8536,7 @@
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="33" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B25" s="34">
         <v>487000</v>
@@ -8564,7 +8566,7 @@
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="33" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B26" s="34">
         <v>300000</v>
@@ -8592,7 +8594,7 @@
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="33" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B27" s="34">
         <v>0</v>
@@ -8620,7 +8622,7 @@
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="33" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B28" s="34">
         <v>0</v>
@@ -8648,7 +8650,7 @@
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="33" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B29" s="34">
         <v>512000</v>
@@ -8676,7 +8678,7 @@
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="33" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B30" s="34">
         <v>219000</v>
@@ -8704,7 +8706,7 @@
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="33" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B31" s="56">
         <v>220000</v>
@@ -8732,7 +8734,7 @@
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="33" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B32" s="56">
         <v>267000</v>
@@ -8760,7 +8762,7 @@
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="33" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B33" s="56">
         <v>462000</v>
@@ -9928,7 +9930,7 @@
   </sheetPr>
   <dimension ref="B1:M166"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
@@ -9979,7 +9981,7 @@
     </row>
     <row r="4" spans="2:13" ht="21.75" x14ac:dyDescent="0.25">
       <c r="B4" s="374" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C4" s="375"/>
       <c r="D4" s="375"/>
@@ -10020,14 +10022,14 @@
     </row>
     <row r="7" spans="2:13" ht="21" x14ac:dyDescent="0.25">
       <c r="B7" s="305" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C7" s="285">
         <v>25000</v>
       </c>
       <c r="D7" s="366"/>
       <c r="E7" s="286" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F7" s="307">
         <v>25000</v>
@@ -10036,7 +10038,7 @@
     </row>
     <row r="8" spans="2:13" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="308" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C8" s="306">
         <v>2000000</v>
@@ -10057,7 +10059,7 @@
     </row>
     <row r="9" spans="2:13" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="279" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C9" s="293">
         <v>2000000</v>
@@ -10107,12 +10109,12 @@
     </row>
     <row r="11" spans="2:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="279" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C11" s="294"/>
       <c r="D11" s="366"/>
       <c r="E11" s="291" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F11" s="301">
         <v>204765</v>
@@ -10130,7 +10132,7 @@
     </row>
     <row r="12" spans="2:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="287" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C12" s="295">
         <f>C10+C11</f>
@@ -10150,14 +10152,14 @@
     </row>
     <row r="13" spans="2:13" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="279" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C13" s="294">
         <v>74882.352499999994</v>
       </c>
       <c r="D13" s="366"/>
       <c r="E13" s="290" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F13" s="309">
         <v>22057</v>
@@ -10169,7 +10171,7 @@
     </row>
     <row r="14" spans="2:13" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="281" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C14" s="296"/>
       <c r="D14" s="366"/>
@@ -10186,7 +10188,7 @@
     </row>
     <row r="15" spans="2:13" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="282" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C15" s="297">
         <f>C13+C14</f>
@@ -10194,7 +10196,7 @@
       </c>
       <c r="D15" s="366"/>
       <c r="E15" s="289" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F15" s="301">
         <v>300000</v>
@@ -10212,7 +10214,7 @@
     </row>
     <row r="16" spans="2:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="280" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C16" s="298">
         <f>C15-C12</f>
@@ -10220,7 +10222,7 @@
       </c>
       <c r="D16" s="366"/>
       <c r="E16" s="291" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F16" s="301"/>
       <c r="G16" s="19"/>
@@ -10230,7 +10232,7 @@
     </row>
     <row r="17" spans="2:13" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="283" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C17" s="299">
         <v>0</v>
@@ -10240,10 +10242,10 @@
       <c r="F17" s="303"/>
       <c r="G17" s="19"/>
       <c r="K17" s="95" t="s">
+        <v>123</v>
+      </c>
+      <c r="L17" s="125" t="s">
         <v>124</v>
-      </c>
-      <c r="L17" s="125" t="s">
-        <v>125</v>
       </c>
       <c r="M17" s="126">
         <v>8000</v>
@@ -10251,7 +10253,7 @@
     </row>
     <row r="18" spans="2:13" ht="41.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="310" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C18" s="311">
         <f>C9+C13-C12+C17</f>
@@ -10267,7 +10269,7 @@
       </c>
       <c r="G18" s="19"/>
       <c r="K18" s="95" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="L18" s="126" t="s">
         <v>81</v>
@@ -10278,7 +10280,7 @@
     </row>
     <row r="19" spans="2:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="363" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C19" s="364"/>
       <c r="D19" s="364"/>
@@ -10306,10 +10308,10 @@
       <c r="E21" s="13"/>
       <c r="G21" s="20"/>
       <c r="K21" s="65" t="s">
+        <v>132</v>
+      </c>
+      <c r="L21" s="65" t="s">
         <v>133</v>
-      </c>
-      <c r="L21" s="65" t="s">
-        <v>134</v>
       </c>
       <c r="M21" s="65">
         <v>4250</v>
@@ -10321,10 +10323,10 @@
       <c r="E22" s="13"/>
       <c r="G22" s="20"/>
       <c r="K22" s="65" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L22" s="65" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="M22" s="65">
         <v>1900</v>
@@ -10336,10 +10338,10 @@
       <c r="E23" s="13"/>
       <c r="G23" s="20"/>
       <c r="K23" s="65" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L23" s="65" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="M23" s="65">
         <v>750</v>
@@ -10384,7 +10386,7 @@
       <c r="F28" s="6"/>
       <c r="G28" s="20"/>
       <c r="K28" s="65" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="L28" s="65" t="s">
         <v>82</v>
@@ -10401,7 +10403,7 @@
       </c>
       <c r="G29" s="2"/>
       <c r="K29" s="65" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L29" s="65" t="s">
         <v>82</v>
@@ -10483,7 +10485,7 @@
       <c r="F37" s="10"/>
       <c r="K37" s="65"/>
       <c r="L37" s="65" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="M37" s="65">
         <v>47704</v>
@@ -10501,10 +10503,10 @@
     </row>
     <row r="40" spans="2:13" x14ac:dyDescent="0.25">
       <c r="K40" s="65" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L40" s="65" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="M40" s="65">
         <v>1500</v>
@@ -10512,10 +10514,10 @@
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.25">
       <c r="K41" s="65" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="L41" s="65" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="M41" s="65">
         <v>750</v>
@@ -10523,10 +10525,10 @@
     </row>
     <row r="42" spans="2:13" x14ac:dyDescent="0.25">
       <c r="K42" s="65" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="L42" s="65" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="M42" s="65">
         <v>4680</v>
@@ -10534,10 +10536,10 @@
     </row>
     <row r="43" spans="2:13" x14ac:dyDescent="0.25">
       <c r="K43" s="65" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="L43" s="65" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="M43" s="65">
         <v>5625</v>
@@ -10545,10 +10547,10 @@
     </row>
     <row r="44" spans="2:13" x14ac:dyDescent="0.25">
       <c r="K44" s="319" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="L44" s="318" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="M44" s="319">
         <v>35144</v>
@@ -10556,10 +10558,10 @@
     </row>
     <row r="45" spans="2:13" x14ac:dyDescent="0.25">
       <c r="K45" s="319" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="L45" s="318" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="M45" s="319">
         <v>35526</v>
@@ -10567,10 +10569,10 @@
     </row>
     <row r="46" spans="2:13" x14ac:dyDescent="0.25">
       <c r="K46" s="319" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="L46" s="318" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="M46" s="319">
         <v>31897</v>
@@ -10578,7 +10580,7 @@
     </row>
     <row r="47" spans="2:13" x14ac:dyDescent="0.25">
       <c r="K47" s="65" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="L47" s="65" t="s">
         <v>82</v>
@@ -10589,7 +10591,7 @@
     </row>
     <row r="48" spans="2:13" x14ac:dyDescent="0.25">
       <c r="K48" s="65" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="L48" s="65" t="s">
         <v>82</v>
@@ -10604,7 +10606,7 @@
       <c r="E49" s="18"/>
       <c r="F49" s="18"/>
       <c r="K49" s="65" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="L49" s="65" t="s">
         <v>82</v>
@@ -11436,7 +11438,7 @@
     </row>
     <row r="5" spans="1:22" s="97" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="396" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B5" s="397"/>
       <c r="C5" s="398"/>
@@ -11638,7 +11640,7 @@
         <v>66</v>
       </c>
       <c r="C10" s="131" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D10" s="103"/>
       <c r="E10" s="237"/>
@@ -11845,7 +11847,7 @@
       <c r="P15" s="115"/>
       <c r="Q15" s="120"/>
       <c r="T15" s="101" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="U15" s="101">
         <v>60</v>
@@ -11858,10 +11860,10 @@
     <row r="16" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="121"/>
       <c r="B16" s="112" t="s">
+        <v>127</v>
+      </c>
+      <c r="C16" s="131" t="s">
         <v>128</v>
-      </c>
-      <c r="C16" s="131" t="s">
-        <v>129</v>
       </c>
       <c r="D16" s="103"/>
       <c r="E16" s="237"/>
@@ -11878,7 +11880,7 @@
       <c r="P16" s="115"/>
       <c r="Q16" s="120"/>
       <c r="T16" s="136" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="U16" s="136">
         <v>349</v>
@@ -11944,7 +11946,7 @@
         <v>107</v>
       </c>
       <c r="C18" s="250" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D18" s="103"/>
       <c r="E18" s="237"/>
@@ -11969,10 +11971,10 @@
         <v>13</v>
       </c>
       <c r="B19" s="112" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C19" s="131" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D19" s="103"/>
       <c r="E19" s="237"/>
@@ -12012,7 +12014,7 @@
         <v>108</v>
       </c>
       <c r="C20" s="251" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D20" s="122"/>
       <c r="E20" s="238"/>
@@ -12218,7 +12220,7 @@
       </c>
       <c r="B26" s="112"/>
       <c r="C26" s="132" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D26" s="122"/>
       <c r="E26" s="239"/>
@@ -12241,7 +12243,7 @@
       </c>
       <c r="B27" s="112"/>
       <c r="C27" s="132" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D27" s="124"/>
       <c r="E27" s="239"/>
@@ -14419,7 +14421,7 @@
         <v>60</v>
       </c>
       <c r="B5" s="416" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C5" s="417"/>
       <c r="D5" s="217" t="s">
@@ -14446,14 +14448,14 @@
         <v>104</v>
       </c>
       <c r="B6" s="413" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C6" s="413"/>
       <c r="D6" s="219" t="s">
+        <v>206</v>
+      </c>
+      <c r="E6" s="414" t="s">
         <v>207</v>
-      </c>
-      <c r="E6" s="414" t="s">
-        <v>208</v>
       </c>
       <c r="F6" s="415"/>
       <c r="G6" s="187"/>
@@ -15376,31 +15378,31 @@
     </row>
     <row r="6" spans="1:40" s="98" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="263" t="s">
+        <v>148</v>
+      </c>
+      <c r="B6" s="263" t="s">
         <v>149</v>
       </c>
-      <c r="B6" s="263" t="s">
+      <c r="C6" s="263" t="s">
         <v>150</v>
-      </c>
-      <c r="C6" s="263" t="s">
-        <v>151</v>
       </c>
       <c r="D6" s="263"/>
       <c r="E6" s="263"/>
       <c r="F6" s="110" t="s">
+        <v>151</v>
+      </c>
+      <c r="G6" s="110" t="s">
         <v>152</v>
-      </c>
-      <c r="G6" s="110" t="s">
-        <v>153</v>
       </c>
       <c r="H6" s="267"/>
       <c r="I6" s="110" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J6" s="110" t="s">
+        <v>153</v>
+      </c>
+      <c r="K6" s="110" t="s">
         <v>154</v>
-      </c>
-      <c r="K6" s="110" t="s">
-        <v>155</v>
       </c>
       <c r="L6" s="266"/>
       <c r="M6" s="266"/>
@@ -15434,10 +15436,10 @@
     </row>
     <row r="7" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="99" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B7" s="112" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C7" s="99">
         <v>31581</v>
@@ -15452,7 +15454,7 @@
       </c>
       <c r="H7" s="260"/>
       <c r="I7" s="99" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J7" s="99">
         <v>24639</v>
@@ -15493,10 +15495,10 @@
     </row>
     <row r="8" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="99" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B8" s="112" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C8" s="99">
         <v>27500</v>
@@ -15511,7 +15513,7 @@
       </c>
       <c r="H8" s="260"/>
       <c r="I8" s="99" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="J8" s="99">
         <v>37436</v>
@@ -15552,10 +15554,10 @@
     </row>
     <row r="9" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="99" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B9" s="112" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C9" s="99">
         <v>24260</v>
@@ -15570,7 +15572,7 @@
       </c>
       <c r="H9" s="260"/>
       <c r="I9" s="99" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="J9" s="99">
         <v>47368</v>
@@ -15611,10 +15613,10 @@
     </row>
     <row r="10" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="99" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B10" s="112" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C10" s="99">
         <v>15836</v>
@@ -15627,7 +15629,7 @@
       <c r="G10" s="99"/>
       <c r="H10" s="260"/>
       <c r="I10" s="99" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="J10" s="99">
         <v>45267</v>
@@ -15668,10 +15670,10 @@
     </row>
     <row r="11" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="99" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B11" s="112" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C11" s="99"/>
       <c r="D11" s="100"/>
@@ -15682,7 +15684,7 @@
       </c>
       <c r="H11" s="260"/>
       <c r="I11" s="99" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J11" s="99">
         <v>50042</v>
@@ -15723,7 +15725,7 @@
     </row>
     <row r="12" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="99" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B12" s="112"/>
       <c r="C12" s="99"/>
@@ -15735,7 +15737,7 @@
       </c>
       <c r="H12" s="260"/>
       <c r="I12" s="99" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J12" s="99">
         <v>49660</v>
@@ -15776,7 +15778,7 @@
     </row>
     <row r="13" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="99" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B13" s="112"/>
       <c r="C13" s="99">
@@ -15790,7 +15792,7 @@
       </c>
       <c r="H13" s="260"/>
       <c r="I13" s="99" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J13" s="99">
         <v>40874</v>
@@ -15831,7 +15833,7 @@
     </row>
     <row r="14" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="99" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B14" s="112"/>
       <c r="C14" s="99"/>
@@ -15841,7 +15843,7 @@
       <c r="G14" s="99"/>
       <c r="H14" s="260"/>
       <c r="I14" s="99" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J14" s="99">
         <v>15853</v>
@@ -15882,7 +15884,7 @@
     </row>
     <row r="15" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="99" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B15" s="112"/>
       <c r="C15" s="100"/>
@@ -15892,7 +15894,7 @@
       <c r="G15" s="99"/>
       <c r="H15" s="260"/>
       <c r="I15" s="99" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J15" s="99">
         <v>79074</v>
@@ -15933,7 +15935,7 @@
     </row>
     <row r="16" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="99" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B16" s="112"/>
       <c r="C16" s="99"/>
@@ -15943,7 +15945,7 @@
       <c r="G16" s="99"/>
       <c r="H16" s="260"/>
       <c r="I16" s="99" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J16" s="99">
         <v>55963</v>
@@ -15992,7 +15994,7 @@
       <c r="G17" s="99"/>
       <c r="H17" s="260"/>
       <c r="I17" s="99" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="J17" s="99">
         <v>35144</v>
@@ -16041,7 +16043,7 @@
       <c r="G18" s="99"/>
       <c r="H18" s="260"/>
       <c r="I18" s="99" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="J18" s="99"/>
       <c r="K18" s="99">
@@ -16088,7 +16090,7 @@
       <c r="G19" s="99"/>
       <c r="H19" s="260"/>
       <c r="I19" s="99" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J19" s="99">
         <v>11460</v>
@@ -16139,7 +16141,7 @@
       <c r="G20" s="99"/>
       <c r="H20" s="260"/>
       <c r="I20" s="99" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J20" s="99">
         <v>39537</v>
@@ -16188,7 +16190,7 @@
       <c r="G21" s="260"/>
       <c r="H21" s="260"/>
       <c r="I21" s="99" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="J21" s="99">
         <v>27122</v>
@@ -16237,7 +16239,7 @@
       <c r="G22" s="260"/>
       <c r="H22" s="260"/>
       <c r="I22" s="231" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="J22" s="231">
         <v>90916</v>
@@ -16286,7 +16288,7 @@
       <c r="G23" s="260"/>
       <c r="H23" s="260"/>
       <c r="I23" s="231" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="J23" s="231">
         <v>85186</v>
@@ -17912,7 +17914,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A1" s="422" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B1" s="422"/>
       <c r="C1" s="422"/>
@@ -17929,7 +17931,7 @@
         <v>34</v>
       </c>
       <c r="D2" s="333" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -17958,10 +17960,10 @@
     </row>
     <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="328" t="s">
+        <v>123</v>
+      </c>
+      <c r="B5" s="329" t="s">
         <v>124</v>
-      </c>
-      <c r="B5" s="329" t="s">
-        <v>125</v>
       </c>
       <c r="C5" s="330">
         <v>8000</v>
@@ -17970,7 +17972,7 @@
     </row>
     <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="324" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B6" s="325" t="s">
         <v>81</v>
@@ -17982,10 +17984,10 @@
     </row>
     <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="324" t="s">
+        <v>132</v>
+      </c>
+      <c r="B7" s="325" t="s">
         <v>133</v>
-      </c>
-      <c r="B7" s="325" t="s">
-        <v>134</v>
       </c>
       <c r="C7" s="327">
         <v>4250</v>
@@ -17994,10 +17996,10 @@
     </row>
     <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="324" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B8" s="325" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C8" s="327">
         <v>1900</v>
@@ -18006,10 +18008,10 @@
     </row>
     <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="324" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B9" s="325" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C9" s="327">
         <v>750</v>
@@ -18018,7 +18020,7 @@
     </row>
     <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="324" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B10" s="327" t="s">
         <v>82</v>
@@ -18030,7 +18032,7 @@
     </row>
     <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="326" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B11" s="326" t="s">
         <v>82</v>
@@ -18042,10 +18044,10 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="65" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B12" s="65" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C12" s="65">
         <v>1500</v>
@@ -18054,10 +18056,10 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="65" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B13" s="65" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C13" s="65">
         <v>750</v>
@@ -18066,10 +18068,10 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="319" t="s">
+        <v>224</v>
+      </c>
+      <c r="B14" s="319" t="s">
         <v>225</v>
-      </c>
-      <c r="B14" s="319" t="s">
-        <v>226</v>
       </c>
       <c r="C14" s="319">
         <v>74681</v>
@@ -18078,10 +18080,10 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="319" t="s">
+        <v>226</v>
+      </c>
+      <c r="B15" s="319" t="s">
         <v>227</v>
-      </c>
-      <c r="B15" s="319" t="s">
-        <v>228</v>
       </c>
       <c r="C15" s="319">
         <v>75063</v>
@@ -18090,10 +18092,10 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="319" t="s">
+        <v>228</v>
+      </c>
+      <c r="B16" s="319" t="s">
         <v>229</v>
-      </c>
-      <c r="B16" s="319" t="s">
-        <v>230</v>
       </c>
       <c r="C16" s="319">
         <v>69715</v>
@@ -18102,10 +18104,10 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="332" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B17" s="319" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C17" s="319">
         <v>119245</v>
